--- a/endpoints - roles.xlsx
+++ b/endpoints - roles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\Projet Integration\backend - Partie Lio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{670934BD-16D4-40F2-BBBC-1F63BE1A6FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440B0ED6-F254-4B39-9141-256A215D0898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{826EDC32-4D16-4E0E-A040-C81902C3631B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{826EDC32-4D16-4E0E-A040-C81902C3631B}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="70">
   <si>
     <t>USER (basique)</t>
   </si>
@@ -239,13 +229,19 @@
   </si>
   <si>
     <t>User(ou marketing ou stock) concerné</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t>Seulement l'admin peut modifier le rôle !</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +256,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFBBB529"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,14 +286,16 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Style de tableau 1" pivot="0" count="1" xr9:uid="{9FB85308-CA0B-4150-8D2C-6354305277BD}"/>
+    <tableStyle name="Style de tableau 1" pivot="0" count="0" xr9:uid="{9FB85308-CA0B-4150-8D2C-6354305277BD}"/>
     <tableStyle name="Style de tableau croisé dynamique 1" table="0" count="0" xr9:uid="{115357D8-F3FF-4372-988B-7A39AF2B9D62}"/>
   </tableStyles>
   <extLst>
@@ -603,13 +606,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECAFB6D5-B4EB-48A5-AC03-45D1BB51E05A}">
-  <dimension ref="A1:G182"/>
+  <dimension ref="A1:H182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
@@ -619,7 +622,7 @@
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -639,22 +642,22 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1"/>
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:7" hidden="1">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2"/>
       <c r="G4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -665,7 +668,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -676,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -687,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -698,70 +701,69 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1"/>
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:7" hidden="1">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="2"/>
       <c r="G14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" hidden="1">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="2"/>
       <c r="G15" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:7" hidden="1">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
       <c r="G16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1"/>
+    <row r="18" spans="1:7" hidden="1">
       <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -769,7 +771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -777,7 +779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -785,7 +787,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -793,7 +795,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -801,7 +803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -809,13 +811,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1"/>
+    <row r="26" spans="1:7" hidden="1">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -823,7 +826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -834,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" t="s">
         <v>7</v>
       </c>
@@ -845,39 +848,43 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" t="s">
         <v>8</v>
       </c>
       <c r="D30" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="D31" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1"/>
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" t="s">
         <v>11</v>
       </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
       <c r="G34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -888,7 +895,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -899,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -910,7 +917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -921,7 +928,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -932,12 +939,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1"/>
+    <row r="41" spans="1:7" hidden="1">
       <c r="A41" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -945,23 +953,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1">
       <c r="A43" t="s">
         <v>6</v>
       </c>
       <c r="D43" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1">
       <c r="A44" t="s">
         <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -972,7 +986,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -983,12 +997,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1"/>
+    <row r="48" spans="1:7" hidden="1">
       <c r="A48" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -996,7 +1011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1004,7 +1019,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1012,7 +1027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -1028,7 +1043,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1036,12 +1051,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1"/>
+    <row r="56" spans="1:7" hidden="1">
       <c r="A56" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -1057,7 +1073,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1097,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -1089,12 +1105,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1"/>
+    <row r="64" spans="1:7" hidden="1">
       <c r="A64" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1102,7 +1119,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -1110,7 +1127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1126,7 +1143,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -1134,21 +1151,22 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1"/>
+    <row r="71" spans="1:7" hidden="1">
       <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:7" hidden="1">
+      <c r="A72" t="s">
         <v>11</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:7" hidden="1">
+      <c r="A73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="s">
@@ -1158,8 +1176,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:7" hidden="1">
+      <c r="A74" t="s">
         <v>7</v>
       </c>
       <c r="D74" t="s">
@@ -1169,8 +1187,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:7" hidden="1">
+      <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="D75" t="s">
@@ -1180,8 +1198,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:7" hidden="1">
+      <c r="A76" t="s">
         <v>30</v>
       </c>
       <c r="D76" t="s">
@@ -1191,8 +1209,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:7" hidden="1">
+      <c r="A77" t="s">
         <v>31</v>
       </c>
       <c r="D77" t="s">
@@ -1202,8 +1220,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:7" hidden="1">
+      <c r="A78" t="s">
         <v>32</v>
       </c>
       <c r="D78" t="s">
@@ -1213,8 +1231,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:7" hidden="1">
+      <c r="A79" t="s">
         <v>9</v>
       </c>
       <c r="D79" t="s">
@@ -1224,23 +1242,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1"/>
+    <row r="81" spans="1:7" hidden="1">
       <c r="A81" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1">
       <c r="A82" t="s">
         <v>11</v>
       </c>
-      <c r="D82" t="s">
-        <v>20</v>
-      </c>
       <c r="G82" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -1251,7 +1267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1">
       <c r="A84" t="s">
         <v>34</v>
       </c>
@@ -1262,7 +1278,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1">
       <c r="A85" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +1289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -1284,12 +1300,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1"/>
+    <row r="88" spans="1:7" hidden="1">
       <c r="A88" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1314,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1">
       <c r="A90" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1">
       <c r="A91" t="s">
         <v>26</v>
       </c>
@@ -1313,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1">
       <c r="A92" t="s">
         <v>36</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1">
       <c r="A93" t="s">
         <v>66</v>
       </c>
@@ -1329,7 +1346,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1">
       <c r="A94" t="s">
         <v>37</v>
       </c>
@@ -1337,7 +1354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1">
       <c r="A95" t="s">
         <v>38</v>
       </c>
@@ -1345,12 +1362,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1"/>
+    <row r="97" spans="1:7" hidden="1">
       <c r="A97" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1">
       <c r="A98" t="s">
         <v>40</v>
       </c>
@@ -1358,7 +1376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1">
       <c r="A99" t="s">
         <v>41</v>
       </c>
@@ -1366,7 +1384,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1">
       <c r="A100" t="s">
         <v>42</v>
       </c>
@@ -1374,7 +1392,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1">
       <c r="A101" t="s">
         <v>6</v>
       </c>
@@ -1382,7 +1400,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1">
       <c r="A102" t="s">
         <v>43</v>
       </c>
@@ -1390,7 +1408,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1">
       <c r="A103" t="s">
         <v>44</v>
       </c>
@@ -1398,7 +1416,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1">
       <c r="A104" t="s">
         <v>45</v>
       </c>
@@ -1406,7 +1424,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -1414,12 +1432,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1"/>
+    <row r="107" spans="1:7" hidden="1">
       <c r="A107" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -1427,7 +1446,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1">
       <c r="A109" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -1443,7 +1462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -1451,12 +1470,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1"/>
+    <row r="113" spans="1:7" hidden="1">
       <c r="A113" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1">
       <c r="A114" t="s">
         <v>11</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1">
       <c r="A115" t="s">
         <v>6</v>
       </c>
@@ -1472,7 +1492,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1">
       <c r="A117" t="s">
         <v>8</v>
       </c>
@@ -1488,7 +1508,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1">
       <c r="A119" t="s">
         <v>13</v>
       </c>
@@ -1504,12 +1524,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1"/>
+    <row r="121" spans="1:7" hidden="1">
       <c r="A121" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -1517,7 +1538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1">
       <c r="A123" t="s">
         <v>6</v>
       </c>
@@ -1525,7 +1546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1">
       <c r="A124" t="s">
         <v>49</v>
       </c>
@@ -1533,7 +1554,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -1541,7 +1562,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -1549,7 +1570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1">
       <c r="A127" t="s">
         <v>13</v>
       </c>
@@ -1557,12 +1578,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1"/>
+    <row r="129" spans="1:7">
       <c r="A129" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -1570,7 +1592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -1600,12 +1622,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>6</v>
       </c>
@@ -1621,7 +1643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>52</v>
       </c>
@@ -1629,7 +1651,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -1640,7 +1662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1673,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>13</v>
       </c>
@@ -1662,12 +1684,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>11</v>
       </c>
@@ -1675,23 +1697,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8">
       <c r="A145" t="s">
         <v>6</v>
       </c>
-      <c r="D145" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
         <v>7</v>
       </c>
       <c r="D146" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G146" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +1724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -1707,12 +1732,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8">
       <c r="A150" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -1720,7 +1745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -1728,7 +1753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>12</v>
       </c>
@@ -1736,28 +1761,34 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>8</v>
       </c>
       <c r="F154" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G154" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>9</v>
       </c>
       <c r="F155" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -1765,7 +1796,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -1776,9 +1807,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="D160" t="s">
         <v>20</v>
@@ -1786,13 +1817,16 @@
       <c r="G160" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
       <c r="A163" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>57</v>
       </c>
@@ -1800,12 +1834,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -1813,7 +1847,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
         <v>6</v>
       </c>
@@ -1821,7 +1855,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -1829,12 +1863,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>11</v>
       </c>
@@ -1842,7 +1876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
         <v>60</v>
       </c>
@@ -1850,7 +1884,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>61</v>
       </c>
@@ -1858,7 +1892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -1866,7 +1900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1908,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
         <v>13</v>
       </c>
@@ -1882,12 +1916,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>63</v>
       </c>
@@ -1895,7 +1929,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>64</v>
       </c>
@@ -1903,7 +1937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>65</v>
       </c>
